--- a/設計/システム構成.xlsx
+++ b/設計/システム構成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\homan\Desktop\アプリ設計\テンプレート\mvc_CTK_template\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F705EF-58C9-4233-87ED-54800AFAA919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B42AC9-8EB3-4D5B-BDE5-D18884223B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル構成" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="183">
   <si>
     <t>テーブル構成</t>
     <rPh sb="4" eb="6">
@@ -2878,7 +2878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2956,21 +2956,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2986,7 +2977,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3001,6 +2992,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3284,8 +3278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3296,16 +3290,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
@@ -3376,7 +3370,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3532,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5673BD-6533-4DDB-B758-F2DCF0AC619B}">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3550,9 +3544,7 @@
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:9" ht="36">
@@ -3588,22 +3580,22 @@
       <c r="C4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>134</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9" ht="36">
       <c r="B5" s="3">
@@ -3627,7 +3619,7 @@
       <c r="H5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="31" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3653,7 +3645,7 @@
       <c r="H6" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9" ht="40.200000000000003" customHeight="1">
       <c r="B7" s="3">
@@ -3674,10 +3666,10 @@
       <c r="G7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="31" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3703,7 +3695,7 @@
       <c r="H8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="36"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" ht="36.6" customHeight="1">
       <c r="B9" s="3">
@@ -3727,7 +3719,7 @@
       <c r="H9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" ht="35.4" customHeight="1">
       <c r="B10" s="3">
@@ -3751,7 +3743,7 @@
       <c r="H10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="3">
@@ -3775,7 +3767,7 @@
       <c r="H11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="31" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3801,7 +3793,7 @@
       <c r="H12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="36"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="3">
@@ -3825,7 +3817,7 @@
       <c r="H13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="36"/>
+      <c r="I13" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3865,20 +3857,12 @@
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3910,103 +3894,103 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="22" customFormat="1">
-      <c r="B4" s="35">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="33" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="42"/>
-      <c r="B5" s="35">
+      <c r="A5" s="37"/>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="42"/>
-      <c r="B6" s="35">
+      <c r="A6" s="37"/>
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="31" t="s">
         <v>175</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="27.6">
-      <c r="A7" s="42"/>
-      <c r="B7" s="35">
+      <c r="A7" s="37"/>
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -4015,26 +3999,26 @@
       <c r="E7" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="31" t="s">
         <v>153</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" ht="46.8" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="35">
+      <c r="A8" s="37"/>
+      <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -4046,26 +4030,26 @@
       <c r="E8" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="31" t="s">
         <v>153</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="46.8" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="35">
+      <c r="A9" s="37"/>
+      <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4077,26 +4061,26 @@
       <c r="E9" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="31" t="s">
         <v>169</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="46.8" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="35">
+      <c r="A10" s="37"/>
+      <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -4108,28 +4092,28 @@
       <c r="E10" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="31" t="s">
         <v>168</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1">
-      <c r="B11" s="35">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -4138,10 +4122,10 @@
       <c r="E11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="31" t="s">
         <v>75</v>
       </c>
       <c r="H11" s="14" t="s">
@@ -4150,13 +4134,13 @@
       <c r="I11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="40.200000000000003" customHeight="1">
-      <c r="B12" s="35">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4171,22 +4155,22 @@
       <c r="F12" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="31" t="s">
         <v>103</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="37.799999999999997" customHeight="1">
-      <c r="B13" s="35">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -4201,22 +4185,22 @@
       <c r="F13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="31" t="s">
         <v>108</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="31.2">
-      <c r="B14" s="35">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -4231,22 +4215,22 @@
       <c r="F14" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="31" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="35">
+      <c r="B15" s="3">
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -4261,22 +4245,22 @@
       <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="31" t="s">
         <v>109</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="31.8">
-      <c r="B16" s="35">
+    <row r="16" spans="1:11" ht="27.6">
+      <c r="B16" s="3">
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -4291,22 +4275,22 @@
       <c r="F16" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="35" t="s">
         <v>144</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" ht="31.2">
-      <c r="B17" s="35">
+      <c r="B17" s="3">
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -4321,22 +4305,22 @@
       <c r="F17" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="31" t="s">
         <v>103</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="35">
+      <c r="B18" s="3">
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -4351,22 +4335,22 @@
       <c r="F18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="31" t="s">
         <v>110</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K18" s="16"/>
     </row>
     <row r="19" spans="2:11" ht="29.4">
-      <c r="B19" s="35">
+      <c r="B19" s="3">
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -4381,22 +4365,22 @@
       <c r="F19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="35" t="s">
         <v>145</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:11" ht="26.4">
-      <c r="B20" s="35">
+      <c r="B20" s="3">
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -4411,22 +4395,22 @@
       <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="35" t="s">
         <v>119</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="38" t="s">
         <v>68</v>
       </c>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="35">
+      <c r="B21" s="3">
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -4441,7 +4425,7 @@
       <c r="F21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="31" t="s">
         <v>75</v>
       </c>
       <c r="H21" s="14" t="s">
@@ -4456,7 +4440,7 @@
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="2:11" s="22" customFormat="1">
-      <c r="B22" s="35">
+      <c r="B22" s="3">
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -4471,10 +4455,10 @@
       <c r="F22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="34" t="s">
         <v>111</v>
       </c>
       <c r="I22" s="7" t="s">
@@ -4485,8 +4469,8 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="2:11" s="22" customFormat="1" ht="31.8">
-      <c r="B23" s="35">
+    <row r="23" spans="2:11" s="22" customFormat="1">
+      <c r="B23" s="3">
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -4501,10 +4485,10 @@
       <c r="F23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="34" t="s">
         <v>112</v>
       </c>
       <c r="I23" s="7" t="s">
@@ -4516,7 +4500,7 @@
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="35">
+      <c r="B24" s="3">
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -4546,7 +4530,7 @@
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="2:11" ht="25.2">
-      <c r="B25" s="35">
+      <c r="B25" s="3">
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -4576,7 +4560,7 @@
       <c r="K25" s="16"/>
     </row>
     <row r="26" spans="2:11" ht="25.2">
-      <c r="B26" s="35">
+      <c r="B26" s="3">
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -4606,61 +4590,61 @@
       <c r="K26" s="16"/>
     </row>
     <row r="27" spans="2:11" s="22" customFormat="1">
-      <c r="B27" s="35">
+      <c r="B27" s="3">
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="36" t="s">
         <v>102</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="36" t="s">
         <v>87</v>
       </c>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:11" s="22" customFormat="1" ht="36">
-      <c r="B28" s="35">
+      <c r="B28" s="3">
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="36" t="s">
         <v>150</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="36" t="s">
         <v>102</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="36" t="s">
         <v>87</v>
       </c>
       <c r="K28" s="7"/>
